--- a/biology/Botanique/Amaranthoideae/Amaranthoideae.xlsx
+++ b/biology/Botanique/Amaranthoideae/Amaranthoideae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Amaranthoideae sont une sous-famille de plantes dicotylédones de la famille des Amaranthaceae. 
 Ces plantes se caractérisent par des étamines aux anthères bilobées et à quatre sacs polliniques.
@@ -518,18 +530,20 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>La sous-famille des Amaranthoideae comprend environ 57 genres et environ 330 espèces. 
-Les recherches phylogénétiques ont montré que cette sous-famille est polyphylétique et que sa classification traditionnelle (tribu des Amarantheae Rchb. avec deux sous-tribus, Amaranthinae et Aervinae) ne reflète pas les relations phylogénétiques[1].
-Par conséquent, il faut définir de nouveaux groupes taxinomiques. Müller &amp; Borsch (2005) ont reconnu plusieurs clades[1] :
+Les recherches phylogénétiques ont montré que cette sous-famille est polyphylétique et que sa classification traditionnelle (tribu des Amarantheae Rchb. avec deux sous-tribus, Amaranthinae et Aervinae) ne reflète pas les relations phylogénétiques.
+Par conséquent, il faut définir de nouveaux groupes taxinomiques. Müller &amp; Borsch (2005) ont reconnu plusieurs clades :
 Groupe de base :
 Bosea L., des îles de Macaronésie et de Chypre à l'Himalaya occidental.
 Charpentiera Gaudich., endemic to Hawaii and the Australian Ridge (Tubuai-Islands)
 Clade des Amaranthoides :
 Amaranthus L. (syn. : Acnida L., Amblogyna Raf.), avec environ 60 espèces, également présentes dans les régions tempérées non-tropicales.
 Chamissoa Kunth, avec environ 24 espèces d'Amérique centrale et d'Amérique du Sud.
-Tribus Celosieae, aux ovaires multi-ovulés. Cette tribu est la seule qui soit monophylétique[1], avec environ cinq genres et 69 espèces :
+Tribus Celosieae, aux ovaires multi-ovulés. Cette tribu est la seule qui soit monophylétique, avec environ cinq genres et 69 espèces :
 Celosia L., avec environ 45 à 60 espèces.
 Deeringia R.Br. (syn.: Cladostachys D.Don, Dendroportulaca Eggli), avec environ sept espèces.
 Henonia Moq.
